--- a/WIP/Draft Tech Tree EAD.xlsx
+++ b/WIP/Draft Tech Tree EAD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\OneDrive\桌面\Unciv-Windows64\mods\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917F4922-4686-4180-9810-47AB01F65A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA72EF6C-F9C5-4233-B982-4FC9F3817F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26525936-DDBC-462F-9C09-5495959B6868}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26525936-DDBC-462F-9C09-5495959B6868}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>Atomic Era</t>
   </si>
@@ -231,12 +231,6 @@
     <t>Space Elevator</t>
   </si>
   <si>
-    <t>Renewables</t>
-  </si>
-  <si>
-    <t>Enrichment</t>
-  </si>
-  <si>
     <t>Antimatter (The process of creating antimatter is called annhilation)</t>
   </si>
   <si>
@@ -265,10 +259,6 @@
   </si>
   <si>
     <t>Virtual Reality</t>
-  </si>
-  <si>
-    <t>New tech that needs elaboration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1950ad</t>
@@ -325,13 +315,19 @@
   <si>
     <t>Hadron Physics</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Uranium Enrichment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,9 +444,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -488,6 +481,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -508,9 +504,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -548,7 +544,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -654,7 +650,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -796,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -806,51 +802,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8078CB7E-F4DE-440E-87B6-D489F8037FF8}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.375" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.33203125" defaultRowHeight="39" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" ht="39" customHeight="1">
+      <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="6">
+      <c r="J1" s="5">
         <v>2050</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="5">
         <v>2060</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="5">
         <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>77</v>
-      </c>
+    <row r="2" spans="1:13" ht="39" customHeight="1">
+      <c r="A2" s="16"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="39" customHeight="1">
       <c r="J3" s="2" t="s">
         <v>37</v>
       </c>
@@ -894,12 +888,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G4" s="8" t="s">
-        <v>86</v>
+    <row r="4" spans="1:13" ht="39" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>31</v>
@@ -910,18 +913,22 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8" t="s">
+    <row r="5" spans="1:13" ht="39" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
@@ -937,49 +944,46 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="7" t="s">
+    <row r="6" spans="1:13" ht="39" customHeight="1">
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:13" ht="39" customHeight="1">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>65</v>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -994,23 +998,17 @@
         <v>58</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>42</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39" customHeight="1">
+      <c r="F8" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>46</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -1018,18 +1016,21 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="12" t="s">
+    <row r="9" spans="1:13" ht="39" customHeight="1">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>36</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>43</v>
@@ -1044,24 +1045,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="12" t="s">
+    <row r="10" spans="1:13" ht="39" customHeight="1">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>48</v>
@@ -1072,15 +1070,18 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:13" ht="39" customHeight="1">
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="F11" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>50</v>
@@ -1088,31 +1089,28 @@
       <c r="K11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>63</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:13" ht="39" customHeight="1">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>56</v>
@@ -1120,40 +1118,40 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:13" ht="39" customHeight="1">
+      <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>69</v>
+      <c r="D13" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="39" customHeight="1">
       <c r="B14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="39" customHeight="1">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1166,10 +1164,10 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="39" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1180,13 +1178,13 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="39" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1197,7 +1195,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="39" customHeight="1">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
